--- a/チーム近未来/チーム近未来_仕様書.xlsx
+++ b/チーム近未来/チーム近未来_仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>素材名</t>
     <rPh sb="0" eb="2">
@@ -275,6 +275,117 @@
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループするか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーの総数</t>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総フレーム数</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュートラル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動(浮遊)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射撃</t>
+    <rPh sb="0" eb="2">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬撃</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化後斬撃</t>
+    <rPh sb="0" eb="2">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾 / やられ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化後射撃</t>
+    <rPh sb="0" eb="3">
+      <t>シンカゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撃破</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -612,13 +723,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,161 +801,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -820,14 +942,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9966"/>
+          <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF66"/>
+          <bgColor rgb="FFFF9966"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1344,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1361,14 +1483,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="9"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1381,302 +1503,466 @@
       <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="33"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="40" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B43" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B44" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:E17">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="未作成">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="未作成">
       <formula>NOT(ISERROR(SEARCH("未作成",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D26">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="未作成">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="未作成">
       <formula>NOT(ISERROR(SEARCH("未作成",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",D22)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/チーム近未来/チーム近未来_仕様書.xlsx
+++ b/チーム近未来/チーム近未来_仕様書.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="228" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="モデル系" sheetId="1" r:id="rId1"/>
+    <sheet name="プログラム" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>素材名</t>
     <rPh sb="0" eb="2">
@@ -386,6 +387,17 @@
   </si>
   <si>
     <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの仕様</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -785,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,12 +885,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -888,23 +918,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1468,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1483,10 +1498,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1511,7 +1526,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1528,7 +1543,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="32"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1558,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="32"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1573,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="32"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1588,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="32"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1603,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="32"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1618,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="32"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1633,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1630,7 +1645,7 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="32"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1655,7 @@
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="32"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1665,7 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="32"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1675,7 @@
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="32"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1685,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="32"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1695,7 @@
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="32"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="16" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1705,7 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="32"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1702,10 +1717,10 @@
     <row r="18" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="19" t="s">
@@ -1774,19 +1789,19 @@
     <row r="27" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="29" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="4" t="s">
@@ -1803,12 +1818,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="16" t="s">
@@ -1860,12 +1875,12 @@
     </row>
     <row r="39" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="40" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="30"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="2:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="4" t="s">
@@ -1882,12 +1897,12 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="16" t="s">
@@ -1922,16 +1937,16 @@
       <c r="E46" s="18"/>
     </row>
     <row r="47" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1981,4 +1996,38 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/チーム近未来/チーム近未来_仕様書.xlsx
+++ b/チーム近未来/チーム近未来_仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>素材名</t>
     <rPh sb="0" eb="2">
@@ -397,7 +397,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aaaaa</t>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択されると素早く点滅、メニュー</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テンメツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,7 +496,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -791,13 +840,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,7 +1002,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,7 +1070,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF33CC33"/>
+          <bgColor rgb="FFFF9966"/>
         </patternFill>
       </fill>
     </dxf>
@@ -964,7 +1084,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9966"/>
+          <bgColor rgb="FF33CC33"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1971,14 +2091,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D26">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="未作成">
-      <formula>NOT(ISERROR(SEARCH("未作成",D22)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",D22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",D22)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="未作成">
+      <formula>NOT(ISERROR(SEARCH("未作成",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G9">
@@ -2000,34 +2120,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.296875" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="42" t="s">
         <v>56</v>
       </c>
-    </row>
+      <c r="B2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="20">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>